--- a/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>45944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34020</v>
+        <v>35296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57855</v>
+        <v>58677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2395709231222618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1773938992966079</v>
+        <v>0.1840482115041472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3016786168682192</v>
+        <v>0.3059619368391673</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -765,19 +765,19 @@
         <v>71480</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57866</v>
+        <v>57749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86344</v>
+        <v>85830</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3591700205835566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2907672505601593</v>
+        <v>0.2901783806685829</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4338621997921636</v>
+        <v>0.4312803026012609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -786,19 +786,19 @@
         <v>117424</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98183</v>
+        <v>98522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137028</v>
+        <v>137259</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3004776726849948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2512426229495455</v>
+        <v>0.2521101782302066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3506423049661506</v>
+        <v>0.3512348459340136</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>145834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>133923</v>
+        <v>133101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157758</v>
+        <v>156482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7604290768777382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6983213831317806</v>
+        <v>0.6940380631608328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8226061007033915</v>
+        <v>0.8159517884958529</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -836,19 +836,19 @@
         <v>127533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112669</v>
+        <v>113183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141147</v>
+        <v>141264</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6408299794164434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5661378002078363</v>
+        <v>0.5687196973987391</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7092327494398406</v>
+        <v>0.7098216193314169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>271</v>
@@ -857,19 +857,19 @@
         <v>273367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>253763</v>
+        <v>253532</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292608</v>
+        <v>292269</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6995223273150052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6493576950338493</v>
+        <v>0.6487651540659862</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7487573770504544</v>
+        <v>0.7478898217697932</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>71218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55333</v>
+        <v>56066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87437</v>
+        <v>87250</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.190453349837067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1479725947922497</v>
+        <v>0.1499325694342146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.233826102300928</v>
+        <v>0.2333273144659016</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -982,19 +982,19 @@
         <v>107194</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88245</v>
+        <v>89027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123495</v>
+        <v>125654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2409239888202139</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1983352917421489</v>
+        <v>0.2000920760657197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2775612550922595</v>
+        <v>0.2824135787459879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -1003,19 +1003,19 @@
         <v>178412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>155904</v>
+        <v>156165</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200938</v>
+        <v>205216</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2178763845459664</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.190389052645253</v>
+        <v>0.1907078131688394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.24538520376477</v>
+        <v>0.2506085452019712</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>302722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286503</v>
+        <v>286690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>318607</v>
+        <v>317874</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8095466501629329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.766173897699072</v>
+        <v>0.7666726855340982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8520274052077503</v>
+        <v>0.8500674305657852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>334</v>
@@ -1053,19 +1053,19 @@
         <v>337735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321434</v>
+        <v>319275</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356684</v>
+        <v>355902</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7590760111797861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7224387449077406</v>
+        <v>0.7175864212540121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8016647082578515</v>
+        <v>0.7999079239342803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>620</v>
@@ -1074,19 +1074,19 @@
         <v>640457</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>617931</v>
+        <v>613653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>662965</v>
+        <v>662704</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7821236154540336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7546147962352291</v>
+        <v>0.7493914547980286</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8096109473547468</v>
+        <v>0.8092921868311604</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>45256</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34693</v>
+        <v>34179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58165</v>
+        <v>58418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1881065592162154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1441989201346151</v>
+        <v>0.1420651168427716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2417608957301265</v>
+        <v>0.242811428128029</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -1199,19 +1199,19 @@
         <v>90321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75815</v>
+        <v>75170</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106793</v>
+        <v>106628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3158193606784083</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2650953613985609</v>
+        <v>0.2628419724640899</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3734152776919635</v>
+        <v>0.3728382276007158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1220,19 +1220,19 @@
         <v>135578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116228</v>
+        <v>117245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154000</v>
+        <v>155436</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2574687847925095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2207229526127669</v>
+        <v>0.2226528078989342</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2924535857472827</v>
+        <v>0.2951797174494587</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>195333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>182424</v>
+        <v>182171</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205896</v>
+        <v>206410</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8118934407837847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7582391042698736</v>
+        <v>0.7571885718719712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8558010798653849</v>
+        <v>0.8579348831572284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>195</v>
@@ -1270,19 +1270,19 @@
         <v>195670</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179198</v>
+        <v>179363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>210176</v>
+        <v>210821</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6841806393215917</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6265847223080366</v>
+        <v>0.6271617723992843</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7349046386014392</v>
+        <v>0.7371580275359101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>386</v>
@@ -1291,19 +1291,19 @@
         <v>391002</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>372580</v>
+        <v>371144</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>410352</v>
+        <v>409335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7425312152074905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7075464142527177</v>
+        <v>0.7048202825505413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7792770473872336</v>
+        <v>0.7773471921010658</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>38178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28573</v>
+        <v>28310</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50151</v>
+        <v>50735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1431558168454226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1071426366848989</v>
+        <v>0.1061565860430097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1880547065603972</v>
+        <v>0.1902431231798716</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1416,19 +1416,19 @@
         <v>74995</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60347</v>
+        <v>61783</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88451</v>
+        <v>89640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2331217200043014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1875875601541214</v>
+        <v>0.1920496973802715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2749481962658683</v>
+        <v>0.2786451300492019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -1437,19 +1437,19 @@
         <v>113173</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94379</v>
+        <v>95506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132195</v>
+        <v>130769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1923447962418982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1604035181700385</v>
+        <v>0.1623188137960111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2246740116522782</v>
+        <v>0.222250868796128</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>228507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216534</v>
+        <v>215950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>238112</v>
+        <v>238375</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8568441831545773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.811945293439603</v>
+        <v>0.8097568768201282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.892857363315101</v>
+        <v>0.8938434139569902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -1487,19 +1487,19 @@
         <v>246706</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233250</v>
+        <v>232061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>261354</v>
+        <v>259918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7668782799956987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7250518037341315</v>
+        <v>0.7213548699507981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8124124398458785</v>
+        <v>0.8079503026197286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>487</v>
@@ -1508,19 +1508,19 @@
         <v>475213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456191</v>
+        <v>457617</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>494007</v>
+        <v>492880</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8076552037581018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.775325988347722</v>
+        <v>0.7777491312038721</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8395964818299616</v>
+        <v>0.8376811862039889</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>41376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31419</v>
+        <v>31662</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53233</v>
+        <v>53060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2726002662159642</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2069995061435834</v>
+        <v>0.2086056807824492</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3507210879032086</v>
+        <v>0.3495829063194668</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1633,19 +1633,19 @@
         <v>45477</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33838</v>
+        <v>34587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57964</v>
+        <v>56787</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2429792953629581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1807953156767401</v>
+        <v>0.1847948470654783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3096965931393492</v>
+        <v>0.3034084142594041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -1654,19 +1654,19 @@
         <v>86852</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72585</v>
+        <v>71273</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103643</v>
+        <v>103039</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2562437001781807</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2141499119678172</v>
+        <v>0.2102803781517222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3057830304123772</v>
+        <v>0.30400089953719</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>110405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98548</v>
+        <v>98721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120362</v>
+        <v>120119</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7273997337840358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6492789120967917</v>
+        <v>0.6504170936805331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.793000493856417</v>
+        <v>0.7913943192175509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -1704,19 +1704,19 @@
         <v>141686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129199</v>
+        <v>130376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153325</v>
+        <v>152576</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.757020704637042</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6903034068606507</v>
+        <v>0.6965915857405959</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8192046843232598</v>
+        <v>0.8152051529345218</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>250</v>
@@ -1725,19 +1725,19 @@
         <v>252092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>235301</v>
+        <v>235905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>266359</v>
+        <v>267671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7437562998218192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6942169695876229</v>
+        <v>0.6959991004628101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.785850088032183</v>
+        <v>0.7897196218482778</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>32374</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23475</v>
+        <v>22539</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43295</v>
+        <v>43834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1511256764709918</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.109586365227427</v>
+        <v>0.1052173558208549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2021063486982718</v>
+        <v>0.2046239520100008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1850,19 +1850,19 @@
         <v>47830</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36850</v>
+        <v>36054</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61783</v>
+        <v>61388</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2111674053777332</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1626901997506044</v>
+        <v>0.1591761371407717</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2727695499082819</v>
+        <v>0.2710279900204042</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1871,19 +1871,19 @@
         <v>80204</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66634</v>
+        <v>65364</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98602</v>
+        <v>97762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1819834163725257</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1511935037291864</v>
+        <v>0.1483121982125279</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.223730369214421</v>
+        <v>0.2218231874671748</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>181843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170922</v>
+        <v>170383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190742</v>
+        <v>191678</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8488743235290083</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7978936513017283</v>
+        <v>0.7953760479899993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.890413634772573</v>
+        <v>0.8947826441791451</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>175</v>
@@ -1921,19 +1921,19 @@
         <v>178672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164719</v>
+        <v>165114</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189652</v>
+        <v>190448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7888325946222667</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7272304500917179</v>
+        <v>0.728972009979596</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8373098002493956</v>
+        <v>0.8408238628592283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>354</v>
@@ -1942,19 +1942,19 @@
         <v>360515</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>342117</v>
+        <v>342957</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>374085</v>
+        <v>375355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8180165836274743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7762696307855792</v>
+        <v>0.7781768125328252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8488064962708138</v>
+        <v>0.8516878017874721</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>88618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73045</v>
+        <v>73188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106683</v>
+        <v>108952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2009265313305107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1656185097884232</v>
+        <v>0.1659425517392998</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2418877454771139</v>
+        <v>0.2470309554575988</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -2067,19 +2067,19 @@
         <v>140924</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120692</v>
+        <v>121634</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162852</v>
+        <v>160656</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2616618785399578</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2240967900543944</v>
+        <v>0.2258459622893789</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3023772611339912</v>
+        <v>0.2982999480773613</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -2088,19 +2088,19 @@
         <v>229541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>204952</v>
+        <v>201597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>260077</v>
+        <v>255084</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2343174975001362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2092162370866598</v>
+        <v>0.2057917103083294</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2654883631513328</v>
+        <v>0.2603917252433773</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>352427</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>334362</v>
+        <v>332093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>368000</v>
+        <v>367857</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7990734686694894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7581122545228857</v>
+        <v>0.7529690445424011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8343814902115759</v>
+        <v>0.8340574482606996</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>384</v>
@@ -2138,19 +2138,19 @@
         <v>397648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>375720</v>
+        <v>377916</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>417880</v>
+        <v>416938</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7383381214600423</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6976227388660089</v>
+        <v>0.7017000519226386</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7759032099456059</v>
+        <v>0.7741540377106211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>735</v>
@@ -2159,19 +2159,19 @@
         <v>750076</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>719540</v>
+        <v>724533</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>774665</v>
+        <v>778020</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7656825024998638</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7345116368486674</v>
+        <v>0.7396082747566228</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7907837629133404</v>
+        <v>0.7942082896916708</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>175127</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153163</v>
+        <v>150916</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198661</v>
+        <v>197980</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2996440079379334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2620640112923773</v>
+        <v>0.258219272942102</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3399110493376846</v>
+        <v>0.3387461391561461</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2284,19 +2284,19 @@
         <v>174299</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>149198</v>
+        <v>151460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>194855</v>
+        <v>198203</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2603111090200235</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2228229727023937</v>
+        <v>0.226201288826886</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2910106344027167</v>
+        <v>0.2960099823344675</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>332</v>
@@ -2305,19 +2305,19 @@
         <v>349426</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>317763</v>
+        <v>317378</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>383629</v>
+        <v>381241</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2786424743086958</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2533933050075418</v>
+        <v>0.2530864667844666</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3059168091932377</v>
+        <v>0.304012281060445</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>409322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>385788</v>
+        <v>386469</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>431286</v>
+        <v>433533</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7003559920620667</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6600889506623154</v>
+        <v>0.6612538608438538</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7379359887076228</v>
+        <v>0.7417807270578981</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>470</v>
@@ -2355,19 +2355,19 @@
         <v>495282</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>474726</v>
+        <v>471378</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>520383</v>
+        <v>518121</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7396888909799765</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7089893655972831</v>
+        <v>0.7039900176655325</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7771770272976062</v>
+        <v>0.7737987111731139</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>881</v>
@@ -2376,19 +2376,19 @@
         <v>904604</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>870401</v>
+        <v>872789</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>936267</v>
+        <v>936652</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7213575256913042</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6940831908067622</v>
+        <v>0.695987718939555</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7466066949924581</v>
+        <v>0.7469135332155333</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>538090</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2183377730115744</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>727</v>
@@ -2501,19 +2501,19 @@
         <v>752521</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2618871887969719</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1251</v>
@@ -2522,19 +2522,19 @@
         <v>1290610</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2417807702481004</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1926393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1887381</v>
+        <v>1884888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1972260</v>
+        <v>1966824</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7816622269884257</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7658322832430736</v>
+        <v>0.7648206932133982</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8002734132980636</v>
+        <v>0.7980676971843129</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2072</v>
@@ -2572,19 +2572,19 @@
         <v>2120932</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2069322</v>
+        <v>2074805</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2167423</v>
+        <v>2167908</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7381128112030282</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7201517659655604</v>
+        <v>0.7220597432443707</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7542922545825138</v>
+        <v>0.7544608590394014</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3984</v>
@@ -2593,19 +2593,19 @@
         <v>4047326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3985392</v>
+        <v>3981359</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4106498</v>
+        <v>4113888</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7582192297518996</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7466167393908808</v>
+        <v>0.7458610873552195</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7693044583972981</v>
+        <v>0.7706888185386939</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>139098</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122020</v>
+        <v>123104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153873</v>
+        <v>153906</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5912710945144314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5186792045476476</v>
+        <v>0.5232851772242639</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6540761920527074</v>
+        <v>0.654218194653952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -2962,19 +2962,19 @@
         <v>160381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143065</v>
+        <v>143251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177867</v>
+        <v>176566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5943544528622389</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5301827792984833</v>
+        <v>0.5308707722138267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6591551838030585</v>
+        <v>0.6543350176316745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>279</v>
@@ -2983,19 +2983,19 @@
         <v>299479</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>273800</v>
+        <v>276121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>321894</v>
+        <v>321133</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5929183477427967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5420791982863996</v>
+        <v>0.5466745299606003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6372964420019498</v>
+        <v>0.6357889340009433</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>96154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81379</v>
+        <v>81346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>113232</v>
+        <v>112148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4087289054855686</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3459238079472925</v>
+        <v>0.3457818053460478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4813207954523523</v>
+        <v>0.476714822775736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>95</v>
@@ -3033,19 +3033,19 @@
         <v>109460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91974</v>
+        <v>93275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126776</v>
+        <v>126590</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4056455471377611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3408448161969415</v>
+        <v>0.3456649823683255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4698172207015167</v>
+        <v>0.4691292277861733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -3054,19 +3054,19 @@
         <v>205614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183199</v>
+        <v>183960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231293</v>
+        <v>228972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4070816522572033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3627035579980499</v>
+        <v>0.3642110659990568</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4579208017136004</v>
+        <v>0.4533254700393997</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>191147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>171066</v>
+        <v>170167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212059</v>
+        <v>211151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4803062402503287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4298489246035169</v>
+        <v>0.4275896495141168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5328532392898376</v>
+        <v>0.530573272422728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -3179,19 +3179,19 @@
         <v>245238</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223053</v>
+        <v>223626</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267934</v>
+        <v>266987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5317202726967302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4836186568979124</v>
+        <v>0.4848613126003928</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5809288118925822</v>
+        <v>0.5788745543909303</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>405</v>
@@ -3200,19 +3200,19 @@
         <v>436384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>405514</v>
+        <v>406373</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>466835</v>
+        <v>467776</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5079056829767045</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4719762123568078</v>
+        <v>0.4729754659951317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5433470643963298</v>
+        <v>0.5444421598401747</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>206821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>185909</v>
+        <v>186817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>226902</v>
+        <v>227801</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5196937597496714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4671467607101624</v>
+        <v>0.469426727577272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5701510753964831</v>
+        <v>0.5724103504858834</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -3250,19 +3250,19 @@
         <v>215979</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193283</v>
+        <v>194230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>238164</v>
+        <v>237591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4682797273032698</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4190711881074177</v>
+        <v>0.4211254456090697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5163813431020875</v>
+        <v>0.5151386873996073</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>386</v>
@@ -3271,19 +3271,19 @@
         <v>422800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>392349</v>
+        <v>391408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>453670</v>
+        <v>452811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4920943170232956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4566529356036702</v>
+        <v>0.4555578401598252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5280237876431921</v>
+        <v>0.5270245340048683</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>128777</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112405</v>
+        <v>111294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144895</v>
+        <v>144518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4852954605163391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.423598699550845</v>
+        <v>0.4194130400232278</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5460371570371682</v>
+        <v>0.544617099537499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -3396,19 +3396,19 @@
         <v>162973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145227</v>
+        <v>146298</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180165</v>
+        <v>179813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5483723780605225</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.48866163348581</v>
+        <v>0.4922628972400565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6062208503117337</v>
+        <v>0.605034192603945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>272</v>
@@ -3417,19 +3417,19 @@
         <v>291750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>266866</v>
+        <v>268889</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>315298</v>
+        <v>316992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.518618834545309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4743862750686443</v>
+        <v>0.4779821303355406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5604791670860869</v>
+        <v>0.5634894823866262</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>136580</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>120462</v>
+        <v>120839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152952</v>
+        <v>154063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5147045394836609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.453962842962832</v>
+        <v>0.455382900462501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5764013004491549</v>
+        <v>0.5805869599767723</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -3467,19 +3467,19 @@
         <v>134221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117029</v>
+        <v>117381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151967</v>
+        <v>150896</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4516276219394775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3937791496882658</v>
+        <v>0.3949658073960549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5113383665141898</v>
+        <v>0.5077371027599435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>263</v>
@@ -3488,19 +3488,19 @@
         <v>270801</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>247253</v>
+        <v>245559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>295685</v>
+        <v>293662</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4813811654546911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.439520832913913</v>
+        <v>0.4365105176133738</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5256137249313556</v>
+        <v>0.5220178696644593</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>181626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163590</v>
+        <v>160170</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200318</v>
+        <v>198318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5779965057798181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5205983352397222</v>
+        <v>0.5097146934807812</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6374804599322895</v>
+        <v>0.6311161221237497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>207</v>
@@ -3613,19 +3613,19 @@
         <v>219885</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>202473</v>
+        <v>201600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237956</v>
+        <v>238600</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6247791674068275</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5753036031098837</v>
+        <v>0.5728219058940551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6761256829464143</v>
+        <v>0.6779531854970372</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>373</v>
@@ -3634,19 +3634,19 @@
         <v>401512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>374029</v>
+        <v>376826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>428531</v>
+        <v>426778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6027118331089528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5614560452523608</v>
+        <v>0.5656556310324364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6432699645377855</v>
+        <v>0.6406381474568088</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>132608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113916</v>
+        <v>115916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150644</v>
+        <v>154064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4220034942201819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3625195400677104</v>
+        <v>0.368883877876251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4794016647602776</v>
+        <v>0.4902853065192191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -3684,19 +3684,19 @@
         <v>132056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113985</v>
+        <v>113341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149468</v>
+        <v>150341</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3752208325931726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3238743170535858</v>
+        <v>0.3220468145029627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4246963968901163</v>
+        <v>0.4271780941059448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>248</v>
@@ -3705,19 +3705,19 @@
         <v>264664</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>237645</v>
+        <v>239398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>292147</v>
+        <v>289350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3972881668910471</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3567300354622143</v>
+        <v>0.3593618525431913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4385439547476391</v>
+        <v>0.4343443689675636</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>93679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79807</v>
+        <v>81807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107434</v>
+        <v>107824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5336148469341511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4546003747957088</v>
+        <v>0.4659881596779376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6119672657648415</v>
+        <v>0.6141883755506805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -3830,19 +3830,19 @@
         <v>111864</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97420</v>
+        <v>98034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126773</v>
+        <v>125783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5508716570492124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4797449666163365</v>
+        <v>0.4827670972004544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6242935519809213</v>
+        <v>0.6194151189294524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -3851,19 +3851,19 @@
         <v>205543</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>184580</v>
+        <v>185147</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223478</v>
+        <v>224771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5428702307224964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4875056919132549</v>
+        <v>0.4890028689329705</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5902406567233459</v>
+        <v>0.5936557563076672</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>81876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68121</v>
+        <v>67731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95748</v>
+        <v>93748</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4663851530658489</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3880327342351584</v>
+        <v>0.3858116244493195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5453996252042913</v>
+        <v>0.5340118403220624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -3901,19 +3901,19 @@
         <v>91203</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76294</v>
+        <v>77284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105647</v>
+        <v>105033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4491283429507876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3757064480190788</v>
+        <v>0.3805848810705477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.520255033383664</v>
+        <v>0.5172329027995458</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>162</v>
@@ -3922,19 +3922,19 @@
         <v>173079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155144</v>
+        <v>153851</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194042</v>
+        <v>193475</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4571297692775036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.409759343276654</v>
+        <v>0.4063442436923329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5124943080867451</v>
+        <v>0.5109971310670296</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>120894</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105403</v>
+        <v>105377</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135865</v>
+        <v>137694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.524862241878479</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4576059926517911</v>
+        <v>0.4574944958897582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5898589456419051</v>
+        <v>0.5977987849523851</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -4047,19 +4047,19 @@
         <v>121484</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105580</v>
+        <v>106523</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137472</v>
+        <v>138327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4755032809962555</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4132516127027419</v>
+        <v>0.4169432297078149</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5380810664582705</v>
+        <v>0.5414289540649142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>232</v>
@@ -4068,19 +4068,19 @@
         <v>242378</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221217</v>
+        <v>220780</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>266446</v>
+        <v>262764</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4989051331939371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4553481237252757</v>
+        <v>0.4544482572699871</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5484452764790592</v>
+        <v>0.5408668227402911</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>109441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94470</v>
+        <v>92641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124932</v>
+        <v>124958</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.475137758121521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.410141054358095</v>
+        <v>0.4022012150476148</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.542394007348209</v>
+        <v>0.5425055041102418</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -4118,19 +4118,19 @@
         <v>134001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118013</v>
+        <v>117158</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>149905</v>
+        <v>148962</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5244967190037445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4619189335417295</v>
+        <v>0.4585710459350855</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5867483872972582</v>
+        <v>0.5830567702921849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -4139,19 +4139,19 @@
         <v>243442</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>219374</v>
+        <v>223056</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264603</v>
+        <v>265040</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5010948668060629</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4515547235209408</v>
+        <v>0.4591331772597091</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5446518762747241</v>
+        <v>0.5455517427300129</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>251139</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>227177</v>
+        <v>227332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274471</v>
+        <v>276016</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4794323538397757</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4336892190233249</v>
+        <v>0.4339854699781654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5239753973238781</v>
+        <v>0.5269236627318857</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>269</v>
@@ -4264,19 +4264,19 @@
         <v>288340</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>261983</v>
+        <v>261097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313595</v>
+        <v>314694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4776557190166388</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.433993111824831</v>
+        <v>0.4325257511235348</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5194927673319384</v>
+        <v>0.5213128917958426</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>501</v>
@@ -4285,19 +4285,19 @@
         <v>539479</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>505105</v>
+        <v>507912</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>574612</v>
+        <v>573201</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4784811382836978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4479935447853156</v>
+        <v>0.4504830834530908</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5096420341055464</v>
+        <v>0.5083907755022871</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>272686</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>249354</v>
+        <v>247809</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296648</v>
+        <v>296493</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5205676461602243</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4760246026761221</v>
+        <v>0.4730763372681145</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5663107809766752</v>
+        <v>0.5660145300218347</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -4335,19 +4335,19 @@
         <v>315317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>290062</v>
+        <v>288963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>341674</v>
+        <v>342560</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5223442809833612</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4805072326680617</v>
+        <v>0.4786871082041574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5660068881751691</v>
+        <v>0.5674742488764651</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>541</v>
@@ -4356,19 +4356,19 @@
         <v>588003</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>552870</v>
+        <v>554281</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>622377</v>
+        <v>619570</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5215188617163021</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4903579658944529</v>
+        <v>0.4916092244977128</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5520064552146842</v>
+        <v>0.549516916546909</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>317290</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>291058</v>
+        <v>292099</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>341682</v>
+        <v>342314</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5238437258149051</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4805355785905436</v>
+        <v>0.4822530515676391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5641152868401175</v>
+        <v>0.5651588539565638</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>364</v>
@@ -4481,19 +4481,19 @@
         <v>392282</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>365639</v>
+        <v>365811</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>420176</v>
+        <v>420411</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5594611095133877</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5214645482676744</v>
+        <v>0.521709060555538</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5992436062808769</v>
+        <v>0.5995783142123332</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>661</v>
@@ -4502,19 +4502,19 @@
         <v>709572</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>674883</v>
+        <v>672238</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>748119</v>
+        <v>749330</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5429535481270265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5164097838959735</v>
+        <v>0.5143861853369156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5724488712160696</v>
+        <v>0.5733762264298692</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>288406</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>264014</v>
+        <v>263382</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314638</v>
+        <v>313597</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4761562741850949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4358847131598825</v>
+        <v>0.4348411460434362</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5194644214094564</v>
+        <v>0.5177469484323608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>282</v>
@@ -4552,19 +4552,19 @@
         <v>308896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>281002</v>
+        <v>280767</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>335539</v>
+        <v>335367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4405388904866123</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4007563937191226</v>
+        <v>0.4004216857876668</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.478535451732325</v>
+        <v>0.478290939444462</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>542</v>
@@ -4573,19 +4573,19 @@
         <v>597302</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>558755</v>
+        <v>557544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>631991</v>
+        <v>634636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4570464518729735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4275511287839304</v>
+        <v>0.426623773570131</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4835902161040266</v>
+        <v>0.4856138146630845</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1423649</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1371322</v>
+        <v>1369655</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1482097</v>
+        <v>1481313</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5180253263074112</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4989851814448812</v>
+        <v>0.4983786039270684</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5392929243097035</v>
+        <v>0.5390079386155443</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1583</v>
@@ -4698,19 +4698,19 @@
         <v>1702448</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1644436</v>
+        <v>1647469</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1758753</v>
+        <v>1764349</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5415633995510047</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5231092060415907</v>
+        <v>0.5240740591191799</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5594742252723014</v>
+        <v>0.5612543826635999</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2918</v>
@@ -4719,19 +4719,19 @@
         <v>3126097</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3049591</v>
+        <v>3041491</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3204099</v>
+        <v>3202172</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5305841043809743</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5175990084206729</v>
+        <v>0.516224134487397</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5438231341614346</v>
+        <v>0.543496024112343</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1324573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1266125</v>
+        <v>1266909</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1376900</v>
+        <v>1378567</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4819746736925888</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4607070756902963</v>
+        <v>0.4609920613844556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5010148185551188</v>
+        <v>0.5016213960729314</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1330</v>
@@ -4769,19 +4769,19 @@
         <v>1441133</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1384828</v>
+        <v>1379232</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1499145</v>
+        <v>1496112</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4584366004489952</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4405257747276986</v>
+        <v>0.4387456173364001</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4768907939584093</v>
+        <v>0.47592594088082</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2563</v>
@@ -4790,19 +4790,19 @@
         <v>2765706</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2687704</v>
+        <v>2689631</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2842212</v>
+        <v>2850312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4694158956190257</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4561768658385654</v>
+        <v>0.456503975887657</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4824009915793272</v>
+        <v>0.483775865512603</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>104795</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89538</v>
+        <v>88599</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119520</v>
+        <v>121100</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4609877044185971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3938743802057784</v>
+        <v>0.3897447139275558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5257617125499622</v>
+        <v>0.532712871698128</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -5159,19 +5159,19 @@
         <v>126928</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109994</v>
+        <v>111213</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142614</v>
+        <v>143102</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5068852216823099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.439259171089586</v>
+        <v>0.4441304854183112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5695279461563157</v>
+        <v>0.5714758839649335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>217</v>
@@ -5180,19 +5180,19 @@
         <v>231723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208967</v>
+        <v>208679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>254553</v>
+        <v>252020</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4850451384435071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4374121178177924</v>
+        <v>0.4368093122366746</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5328337659774015</v>
+        <v>0.5275309327777495</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>122532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107807</v>
+        <v>106227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>137789</v>
+        <v>138728</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5390122955814028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4742382874500379</v>
+        <v>0.467287128301872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6061256197942216</v>
+        <v>0.6102552860724442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -5230,19 +5230,19 @@
         <v>123479</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107793</v>
+        <v>107305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140413</v>
+        <v>139194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4931147783176902</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4304720538436843</v>
+        <v>0.4285241160350664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5607408289104141</v>
+        <v>0.5558695145816891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>230</v>
@@ -5251,19 +5251,19 @@
         <v>246012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>223182</v>
+        <v>225715</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>268768</v>
+        <v>269056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5149548615564929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4671662340225987</v>
+        <v>0.4724690672222505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5625878821822078</v>
+        <v>0.5631906877633256</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>75174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60792</v>
+        <v>60632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92476</v>
+        <v>91048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1961779570909814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1586451109071353</v>
+        <v>0.1582266820893137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2413295297160166</v>
+        <v>0.2376011608021158</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -5376,19 +5376,19 @@
         <v>105184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87978</v>
+        <v>87772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123470</v>
+        <v>124725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2346134872575756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1962352440891114</v>
+        <v>0.1957761090521392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2754027218981835</v>
+        <v>0.2782005644859307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -5397,19 +5397,19 @@
         <v>180358</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158976</v>
+        <v>157312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205564</v>
+        <v>208092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2169010304738919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1911866070531963</v>
+        <v>0.1891857492127239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2472136810843002</v>
+        <v>0.2502539527901149</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>308021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>290719</v>
+        <v>292147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>322403</v>
+        <v>322563</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8038220429090186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7586704702839832</v>
+        <v>0.7623988391978841</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8413548890928647</v>
+        <v>0.8417733179106863</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -5447,19 +5447,19 @@
         <v>343143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>324857</v>
+        <v>323602</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360349</v>
+        <v>360555</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7653865127424244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7245972781018161</v>
+        <v>0.7217994355140693</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8037647559108885</v>
+        <v>0.804223890947861</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>606</v>
@@ -5468,19 +5468,19 @@
         <v>651164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>625958</v>
+        <v>623430</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>672546</v>
+        <v>674210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.783098969526108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7527863189156998</v>
+        <v>0.7497460472098852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8088133929468037</v>
+        <v>0.8108142507872761</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>59083</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46933</v>
+        <v>47343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73871</v>
+        <v>73333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2503964657372793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.198903011654633</v>
+        <v>0.2006435459138486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3130708516144135</v>
+        <v>0.3107907159398944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -5593,19 +5593,19 @@
         <v>81362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67205</v>
+        <v>66638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96886</v>
+        <v>95131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3026240619228201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2499679896131444</v>
+        <v>0.2478575266344788</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3603669485450048</v>
+        <v>0.3538383415759017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -5614,19 +5614,19 @@
         <v>140445</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121018</v>
+        <v>118380</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159627</v>
+        <v>160166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2782120590948689</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2397294261386209</v>
+        <v>0.2345027060578522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3162116631065913</v>
+        <v>0.3172787129133876</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>176874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>162086</v>
+        <v>162624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>189024</v>
+        <v>188614</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7496035342627206</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6869291483855865</v>
+        <v>0.6892092840601056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.801096988345367</v>
+        <v>0.7993564540861515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>183</v>
@@ -5664,19 +5664,19 @@
         <v>187493</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171969</v>
+        <v>173724</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201650</v>
+        <v>202217</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6973759380771799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6396330514549952</v>
+        <v>0.6461616584240981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7500320103868554</v>
+        <v>0.7521424733655212</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>369</v>
@@ -5685,19 +5685,19 @@
         <v>364367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>345185</v>
+        <v>344646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>383794</v>
+        <v>386432</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7217879409051311</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6837883368934088</v>
+        <v>0.6827212870866126</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7602705738613792</v>
+        <v>0.7654972939421478</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>110237</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94804</v>
+        <v>93285</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126613</v>
+        <v>126740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4055104310127484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3487404572950759</v>
+        <v>0.3431522492786734</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4657527063689083</v>
+        <v>0.4662194255252179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -5810,19 +5810,19 @@
         <v>160419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140988</v>
+        <v>143614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178714</v>
+        <v>178442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4709107769481806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4138715885452692</v>
+        <v>0.4215790402410296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5246148689369722</v>
+        <v>0.5238164388328315</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>254</v>
@@ -5831,19 +5831,19 @@
         <v>270656</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245440</v>
+        <v>246395</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>297816</v>
+        <v>295878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4418842408062842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4007151089414446</v>
+        <v>0.4022751880547459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4862262698542554</v>
+        <v>0.4830624015415561</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>161610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145234</v>
+        <v>145107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177043</v>
+        <v>178562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5944895689872516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5342472936310917</v>
+        <v>0.5337805744747822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6512595427049241</v>
+        <v>0.6568477507213266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>164</v>
@@ -5881,19 +5881,19 @@
         <v>180238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161943</v>
+        <v>162215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199669</v>
+        <v>197043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5290892230518194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4753851310630277</v>
+        <v>0.4761835611671685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5861284114547308</v>
+        <v>0.5784209597589703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>323</v>
@@ -5902,19 +5902,19 @@
         <v>341848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>314688</v>
+        <v>316626</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>367064</v>
+        <v>366109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5581157591937157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5137737301457447</v>
+        <v>0.5169375984584439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5992848910585554</v>
+        <v>0.5977248119452541</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>102860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89493</v>
+        <v>89309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115872</v>
+        <v>114618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5957758003367302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5183521090438713</v>
+        <v>0.5172843452527012</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.671144441380735</v>
+        <v>0.6638807222758102</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -6027,19 +6027,19 @@
         <v>120085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>108181</v>
+        <v>106502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132976</v>
+        <v>131974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.644836549671605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5809176285028315</v>
+        <v>0.5718983124203284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7140602351462532</v>
+        <v>0.7086777321441764</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -6048,19 +6048,19 @@
         <v>222945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>206043</v>
+        <v>203547</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>241346</v>
+        <v>239950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.62123413874724</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5741373963378875</v>
+        <v>0.5671836961214464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6725098250270095</v>
+        <v>0.6686179819451996</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>69789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56777</v>
+        <v>58031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83156</v>
+        <v>83340</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4042241996632698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.328855558619265</v>
+        <v>0.3361192777241899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4816478909561287</v>
+        <v>0.4827156547472988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -6098,19 +6098,19 @@
         <v>66140</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53249</v>
+        <v>54251</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78044</v>
+        <v>79723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.355163450328395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2859397648537467</v>
+        <v>0.2913222678558234</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4190823714971685</v>
+        <v>0.428101687579671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -6119,19 +6119,19 @@
         <v>135929</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117528</v>
+        <v>118924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152831</v>
+        <v>155327</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.37876586125276</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3274901749729905</v>
+        <v>0.3313820180548006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4258626036621126</v>
+        <v>0.4328163038785538</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>81940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68384</v>
+        <v>68561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95204</v>
+        <v>94455</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4226912921278195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3527616591939239</v>
+        <v>0.3536733045310402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4911139836557995</v>
+        <v>0.487249292699267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -6244,19 +6244,19 @@
         <v>93762</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78287</v>
+        <v>77777</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108658</v>
+        <v>107726</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4449548670866829</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3715180620803185</v>
+        <v>0.3690955507936545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5156447826082856</v>
+        <v>0.5112211004691992</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>169</v>
@@ -6265,19 +6265,19 @@
         <v>175702</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157229</v>
+        <v>156041</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>196540</v>
+        <v>194876</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4342872608374665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3886269971976815</v>
+        <v>0.3856909702799522</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4857917391636912</v>
+        <v>0.4816796490690832</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>111913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98649</v>
+        <v>99398</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125469</v>
+        <v>125292</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5773087078721805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5088860163442004</v>
+        <v>0.512750707300733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.647238340806076</v>
+        <v>0.6463266954689598</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>113</v>
@@ -6315,19 +6315,19 @@
         <v>116961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102065</v>
+        <v>102997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>132436</v>
+        <v>132946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.555045132913317</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4843552173917147</v>
+        <v>0.488778899530801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6284819379196815</v>
+        <v>0.6309044492063456</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>226</v>
@@ -6336,19 +6336,19 @@
         <v>228874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>208036</v>
+        <v>209700</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247347</v>
+        <v>248535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5657127391625335</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5142082608363088</v>
+        <v>0.5183203509309169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6113730028023187</v>
+        <v>0.6143090297200478</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>158514</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138093</v>
+        <v>139474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181531</v>
+        <v>178991</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3618499202043687</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3152343362564874</v>
+        <v>0.3183865465394456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4143925731625833</v>
+        <v>0.4085940001813627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>229</v>
@@ -6461,19 +6461,19 @@
         <v>246564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>223364</v>
+        <v>223867</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>271208</v>
+        <v>272293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.445004838876829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4031337294057056</v>
+        <v>0.4040409402067904</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4894825434167111</v>
+        <v>0.4914419988831407</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -6482,19 +6482,19 @@
         <v>405078</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374898</v>
+        <v>373884</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>437696</v>
+        <v>438096</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4082887728504338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3778692810918812</v>
+        <v>0.3768472564320096</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4411649838592666</v>
+        <v>0.4415681401697629</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>279552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>256535</v>
+        <v>259075</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>299973</v>
+        <v>298592</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6381500797956313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.585607426837417</v>
+        <v>0.5914059998186373</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6847656637435126</v>
+        <v>0.6816134534605545</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -6532,19 +6532,19 @@
         <v>307506</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>282862</v>
+        <v>281777</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>330706</v>
+        <v>330203</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.554995161123171</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5105174565832888</v>
+        <v>0.5085580011168593</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5968662705942943</v>
+        <v>0.5959590597932096</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>531</v>
@@ -6553,19 +6553,19 @@
         <v>587058</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>554440</v>
+        <v>554040</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>617238</v>
+        <v>618252</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5917112271495663</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5588350161407334</v>
+        <v>0.558431859830237</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6221307189081188</v>
+        <v>0.6231527435679904</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>347516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>323435</v>
+        <v>323353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>367718</v>
+        <v>371955</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.603221845566787</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5614220882549245</v>
+        <v>0.5612796686807139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6382904253392943</v>
+        <v>0.6456447835260184</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>415</v>
@@ -6678,19 +6678,19 @@
         <v>452515</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>428376</v>
+        <v>424246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>478986</v>
+        <v>479100</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6521715613874777</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6173815622091678</v>
+        <v>0.6114300884423263</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6903217316082825</v>
+        <v>0.690486560185865</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>748</v>
@@ -6699,19 +6699,19 @@
         <v>800031</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>761573</v>
+        <v>763412</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>838667</v>
+        <v>835130</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6299661848641752</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5996837377426635</v>
+        <v>0.6011317664517662</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6603892620340093</v>
+        <v>0.6576045664097222</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>228583</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>208381</v>
+        <v>204144</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>252664</v>
+        <v>252746</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3967781544332129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3617095746607057</v>
+        <v>0.3543552164739816</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4385779117450757</v>
+        <v>0.4387203313192861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>213</v>
@@ -6749,19 +6749,19 @@
         <v>241344</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>214873</v>
+        <v>214759</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>265483</v>
+        <v>269613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3478284386125223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3096782683917175</v>
+        <v>0.309513439814135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.382618437790832</v>
+        <v>0.3885699115576738</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>437</v>
@@ -6770,19 +6770,19 @@
         <v>469927</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>431291</v>
+        <v>434828</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>508385</v>
+        <v>506546</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3700338151358248</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3396107379659912</v>
+        <v>0.342395433590278</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4003162622573366</v>
+        <v>0.3988682335482338</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1040119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>990902</v>
+        <v>990531</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1087483</v>
+        <v>1090653</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4162151537538221</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3965206009731178</v>
+        <v>0.396372153522688</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4351685190967765</v>
+        <v>0.4364371326200961</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1306</v>
@@ -6895,19 +6895,19 @@
         <v>1386818</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1332576</v>
+        <v>1333036</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1449568</v>
+        <v>1441576</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4696106301764345</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4512429756476242</v>
+        <v>0.4513987966123028</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.490859454173261</v>
+        <v>0.4881531329654066</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2302</v>
@@ -6916,19 +6916,19 @@
         <v>2426937</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2349754</v>
+        <v>2346657</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2504066</v>
+        <v>2502946</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4451366621481327</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4309801130634306</v>
+        <v>0.4304120787649726</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4592833350363972</v>
+        <v>0.4590778367979052</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1458874</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1411510</v>
+        <v>1408340</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1508091</v>
+        <v>1508462</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5837848462461779</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5648314809032235</v>
+        <v>0.5635628673799035</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6034793990268823</v>
+        <v>0.6036278464773119</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1455</v>
@@ -6966,19 +6966,19 @@
         <v>1566305</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1503555</v>
+        <v>1511547</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1620547</v>
+        <v>1620087</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5303893698235655</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5091405458267391</v>
+        <v>0.5118468670345927</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5487570243523757</v>
+        <v>0.5486012033876971</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2860</v>
@@ -6987,19 +6987,19 @@
         <v>3025179</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2948050</v>
+        <v>2949170</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3102362</v>
+        <v>3105459</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5548633378518673</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5407166649636027</v>
+        <v>0.5409221632020947</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5690198869365694</v>
+        <v>0.5695879212350274</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>25360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17772</v>
+        <v>17998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35927</v>
+        <v>34948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1022473578798015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07165532542039464</v>
+        <v>0.07256366322386609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1448496613178699</v>
+        <v>0.1409032610591988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -7356,19 +7356,19 @@
         <v>34988</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27554</v>
+        <v>26714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44210</v>
+        <v>44646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1293537975142658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1018700395148864</v>
+        <v>0.09876585813460445</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1634510253492046</v>
+        <v>0.1650612540546786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -7377,19 +7377,19 @@
         <v>60348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48389</v>
+        <v>48055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72425</v>
+        <v>72504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1163875131722265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09332356357265249</v>
+        <v>0.09267886896124261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1396786607686236</v>
+        <v>0.1398325561836175</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>222667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212100</v>
+        <v>213079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230255</v>
+        <v>230029</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8977526421201985</v>
+        <v>0.8977526421201986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8551503386821299</v>
+        <v>0.8590967389408011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9283446745796051</v>
+        <v>0.9274363367761339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -7427,19 +7427,19 @@
         <v>235493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226271</v>
+        <v>225835</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>242927</v>
+        <v>243767</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8706462024857342</v>
+        <v>0.8706462024857343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8365489746507951</v>
+        <v>0.8349387459453214</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8981299604851136</v>
+        <v>0.9012341418653956</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>638</v>
@@ -7448,19 +7448,19 @@
         <v>458160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>446083</v>
+        <v>446004</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470119</v>
+        <v>470453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8836124868277736</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8603213392313763</v>
+        <v>0.8601674438163823</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9066764364273474</v>
+        <v>0.9073211310387572</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>76819</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60756</v>
+        <v>60658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96856</v>
+        <v>98622</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2184073409359178</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1727375160370102</v>
+        <v>0.1724607454350921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2753766113379849</v>
+        <v>0.2803963412422909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -7573,19 +7573,19 @@
         <v>124692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107002</v>
+        <v>109345</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141475</v>
+        <v>143074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2820896055979384</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2420698364408982</v>
+        <v>0.2473697904860831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3200562666975814</v>
+        <v>0.3236749337086045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -7594,19 +7594,19 @@
         <v>201511</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>177711</v>
+        <v>176892</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226818</v>
+        <v>225840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2538711693386801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2238872302737575</v>
+        <v>0.2228552481907341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2857544057248773</v>
+        <v>0.2845221533635576</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>274903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>254866</v>
+        <v>253100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290966</v>
+        <v>291064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7815926590640822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.724623388662015</v>
+        <v>0.7196036587577094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.82726248396299</v>
+        <v>0.8275392545649091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>434</v>
@@ -7644,19 +7644,19 @@
         <v>317339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300556</v>
+        <v>298957</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335029</v>
+        <v>332686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7179103944020615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6799437333024186</v>
+        <v>0.6763250662913954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7579301635591018</v>
+        <v>0.7526302095139169</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -7665,19 +7665,19 @@
         <v>592242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>566935</v>
+        <v>567913</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>616042</v>
+        <v>616861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7461288306613199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7142455942751227</v>
+        <v>0.7154778466364423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7761127697262424</v>
+        <v>0.7771447518092659</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>44544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34670</v>
+        <v>34006</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56238</v>
+        <v>57315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1956861830538454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1523084641998195</v>
+        <v>0.1493894975377814</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2470562788050583</v>
+        <v>0.2517878474711592</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -7790,19 +7790,19 @@
         <v>60902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50743</v>
+        <v>50262</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73435</v>
+        <v>72929</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2221030518682962</v>
+        <v>0.2221030518682961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1850541275387477</v>
+        <v>0.1833010406249435</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2678076743812819</v>
+        <v>0.2659635177350777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>158</v>
@@ -7811,19 +7811,19 @@
         <v>105447</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90300</v>
+        <v>90613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121169</v>
+        <v>121765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2101204786784693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.17993875330368</v>
+        <v>0.1805613976896308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2414507770691369</v>
+        <v>0.2426372985384111</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>183088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>171394</v>
+        <v>170317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>192962</v>
+        <v>193626</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8043138169461544</v>
+        <v>0.8043138169461546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7529437211949417</v>
+        <v>0.7482121525288408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8476915358001805</v>
+        <v>0.8506105024622185</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>335</v>
@@ -7861,19 +7861,19 @@
         <v>213305</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>200772</v>
+        <v>201278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>223464</v>
+        <v>223945</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.777896948131704</v>
+        <v>0.7778969481317038</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7321923256187181</v>
+        <v>0.7340364822649224</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8149458724612524</v>
+        <v>0.8166989593750565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>555</v>
@@ -7882,19 +7882,19 @@
         <v>396392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>380670</v>
+        <v>380074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>411539</v>
+        <v>411226</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7898795213215306</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7585492229308629</v>
+        <v>0.7573627014615888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8200612466963199</v>
+        <v>0.8194386023103691</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>71894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54779</v>
+        <v>55725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89756</v>
+        <v>91068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.286127230283751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2180105847592609</v>
+        <v>0.2217754582723258</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3572150487384458</v>
+        <v>0.3624332257379305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -8007,19 +8007,19 @@
         <v>86567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72598</v>
+        <v>71593</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102340</v>
+        <v>101238</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.26359083246451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2210555022649494</v>
+        <v>0.217995856533483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3116189549967179</v>
+        <v>0.3082637245444076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -8028,19 +8028,19 @@
         <v>158461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135164</v>
+        <v>136632</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>181492</v>
+        <v>182371</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2733594014835216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2331695589386092</v>
+        <v>0.2357017021449731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.313089616399471</v>
+        <v>0.3146071559025228</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>179373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161511</v>
+        <v>160199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196488</v>
+        <v>195542</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.713872769716249</v>
+        <v>0.7138727697162488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6427849512615548</v>
+        <v>0.6375667742620693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7819894152407396</v>
+        <v>0.7782245417276741</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -8078,19 +8078,19 @@
         <v>241846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226073</v>
+        <v>227175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>255815</v>
+        <v>256820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.73640916753549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.688381045003282</v>
+        <v>0.6917362754555925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7789444977350507</v>
+        <v>0.782004143466517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>537</v>
@@ -8099,19 +8099,19 @@
         <v>421219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>398188</v>
+        <v>397309</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>444516</v>
+        <v>443048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7266405985164782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6869103836005291</v>
+        <v>0.685392844097477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7668304410613908</v>
+        <v>0.7642982978550269</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>26399</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19323</v>
+        <v>19441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34922</v>
+        <v>35604</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2419361108965645</v>
+        <v>0.2419361108965644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1770842880363972</v>
+        <v>0.1781735173078281</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3200518148821616</v>
+        <v>0.3263001274588638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -8224,19 +8224,19 @@
         <v>34392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27406</v>
+        <v>27425</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42290</v>
+        <v>41965</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2240519169463016</v>
+        <v>0.2240519169463015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1785377096123483</v>
+        <v>0.1786592989667991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2754983342919299</v>
+        <v>0.2733859727570792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -8245,19 +8245,19 @@
         <v>60791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50458</v>
+        <v>51232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72042</v>
+        <v>72965</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2314826348781227</v>
+        <v>0.2314826348781228</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1921353166243099</v>
+        <v>0.1950823653122912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2743253750372496</v>
+        <v>0.2778374113799661</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>82716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74193</v>
+        <v>73511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89792</v>
+        <v>89674</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7580638891034355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6799481851178385</v>
+        <v>0.6736998725411363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8229157119636026</v>
+        <v>0.8218264826921717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>269</v>
@@ -8295,19 +8295,19 @@
         <v>119110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>111212</v>
+        <v>111537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126096</v>
+        <v>126077</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7759480830536984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7245016657080702</v>
+        <v>0.7266140272429205</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8214622903876517</v>
+        <v>0.8213407010332009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -8316,19 +8316,19 @@
         <v>201825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190574</v>
+        <v>189651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>212158</v>
+        <v>211384</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7685173651218772</v>
+        <v>0.7685173651218773</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7256746249627509</v>
+        <v>0.7221625886200339</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8078646833756906</v>
+        <v>0.804917634687709</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>60259</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48757</v>
+        <v>49659</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71469</v>
+        <v>73019</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2946821030380028</v>
+        <v>0.2946821030380027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2384327389534526</v>
+        <v>0.2428446650170378</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3494989251592881</v>
+        <v>0.357081269998326</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>141</v>
@@ -8441,19 +8441,19 @@
         <v>72627</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62647</v>
+        <v>62579</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84666</v>
+        <v>83045</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.339484000649631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2928356090277759</v>
+        <v>0.292515796737017</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3957608144749189</v>
+        <v>0.3881800859589438</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>231</v>
@@ -8462,19 +8462,19 @@
         <v>132886</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116426</v>
+        <v>116607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>148825</v>
+        <v>148949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3175886691964312</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2782511676018338</v>
+        <v>0.2786821622708022</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3556815474217619</v>
+        <v>0.3559784008612464</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>144230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133020</v>
+        <v>131470</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155732</v>
+        <v>154830</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7053178969619974</v>
+        <v>0.7053178969619972</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6505010748407118</v>
+        <v>0.642918730001674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7615672610465473</v>
+        <v>0.7571553349829621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -8512,19 +8512,19 @@
         <v>141306</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129267</v>
+        <v>130888</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151286</v>
+        <v>151354</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6605159993503692</v>
+        <v>0.6605159993503689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6042391855250812</v>
+        <v>0.6118199140410562</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7071643909722242</v>
+        <v>0.7074842032629831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>457</v>
@@ -8533,19 +8533,19 @@
         <v>285536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>269597</v>
+        <v>269473</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>301996</v>
+        <v>301815</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6824113308035687</v>
+        <v>0.6824113308035689</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6443184525782377</v>
+        <v>0.6440215991387536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7217488323981661</v>
+        <v>0.7213178377291978</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>59456</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45383</v>
+        <v>45706</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78133</v>
+        <v>78779</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1223969347084453</v>
+        <v>0.1223969347084452</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09342553971055077</v>
+        <v>0.09409070506166671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1608447294186546</v>
+        <v>0.1621746832083866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -8658,19 +8658,19 @@
         <v>82679</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68949</v>
+        <v>69338</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99889</v>
+        <v>99089</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1430613622103817</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1193036920013897</v>
+        <v>0.1199770238709091</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1728397049963026</v>
+        <v>0.1714561458163084</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>164</v>
@@ -8679,19 +8679,19 @@
         <v>142135</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121081</v>
+        <v>121890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>164324</v>
+        <v>164500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1336243934649933</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.113830512813033</v>
+        <v>0.1145909144435657</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1544845482769217</v>
+        <v>0.1546501314033714</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>426309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>407632</v>
+        <v>406986</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>440382</v>
+        <v>440059</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8776030652915549</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8391552705813455</v>
+        <v>0.8378253167916135</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9065744602894495</v>
+        <v>0.9059092949383333</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>629</v>
@@ -8729,19 +8729,19 @@
         <v>495250</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>478040</v>
+        <v>478840</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>508980</v>
+        <v>508591</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8569386377896183</v>
+        <v>0.8569386377896184</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8271602950036975</v>
+        <v>0.8285438541836914</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8806963079986103</v>
+        <v>0.880022976129091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1007</v>
@@ -8750,19 +8750,19 @@
         <v>921559</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>899370</v>
+        <v>899194</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>942613</v>
+        <v>941804</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8663756065350067</v>
+        <v>0.8663756065350069</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8455154517230784</v>
+        <v>0.8453498685966285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.886169487186967</v>
+        <v>0.8854090855564334</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>206518</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>183183</v>
+        <v>183492</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>228322</v>
+        <v>227612</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4151754172718696</v>
+        <v>0.4151754172718695</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3682633312650361</v>
+        <v>0.3688852603479655</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4590078405193294</v>
+        <v>0.4575807612426437</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>378</v>
@@ -8875,19 +8875,19 @@
         <v>301683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>280564</v>
+        <v>279573</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>325605</v>
+        <v>323900</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4859155157297904</v>
+        <v>0.4859155157297902</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.451900011030512</v>
+        <v>0.4503033976248388</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5244455090647941</v>
+        <v>0.5217003979001205</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>569</v>
@@ -8896,19 +8896,19 @@
         <v>508202</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>477582</v>
+        <v>476312</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>539535</v>
+        <v>540204</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4544494618189979</v>
+        <v>0.454449461818998</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4270679685536227</v>
+        <v>0.4259329275169391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.482468539637292</v>
+        <v>0.4830667033260591</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>290906</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>269102</v>
+        <v>269812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314241</v>
+        <v>313932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5848245827281305</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5409921594806706</v>
+        <v>0.5424192387573562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.631736668734964</v>
+        <v>0.6311147396520346</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>462</v>
@@ -8946,19 +8946,19 @@
         <v>319172</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>295250</v>
+        <v>296955</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>340291</v>
+        <v>341282</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5140844842702097</v>
+        <v>0.5140844842702096</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.475554490935206</v>
+        <v>0.4782996020998795</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5480999889694881</v>
+        <v>0.549696602375161</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>792</v>
@@ -8967,19 +8967,19 @@
         <v>610078</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>578745</v>
+        <v>578076</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>640698</v>
+        <v>641968</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5455505381810021</v>
+        <v>0.5455505381810022</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5175314603627081</v>
+        <v>0.5169332966739411</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5729320314463774</v>
+        <v>0.574067072483061</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>571250</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>528457</v>
+        <v>527880</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>616210</v>
+        <v>617652</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2404817166897065</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.222466979654051</v>
+        <v>0.2222240515644234</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2594086884785102</v>
+        <v>0.26001601262024</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1166</v>
@@ -9092,19 +9092,19 @@
         <v>798531</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>756657</v>
+        <v>760142</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>841249</v>
+        <v>839498</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2771375617462544</v>
+        <v>0.2771375617462545</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2626049487889739</v>
+        <v>0.2638142499921167</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2919633462612546</v>
+        <v>0.2913554922982814</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1745</v>
@@ -9113,19 +9113,19 @@
         <v>1369781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1307877</v>
+        <v>1308531</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1427367</v>
+        <v>1434095</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.260573513015071</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2487975944949813</v>
+        <v>0.2489219292520159</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2715281060126578</v>
+        <v>0.2728079837764327</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1804190</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1759230</v>
+        <v>1757788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1846983</v>
+        <v>1847560</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7595182833102936</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.74059131152149</v>
+        <v>0.7399839873797606</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7775330203459491</v>
+        <v>0.7777759484355766</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3145</v>
@@ -9163,19 +9163,19 @@
         <v>2082821</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2040103</v>
+        <v>2041854</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2124695</v>
+        <v>2121210</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7228624382537454</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7080366537387455</v>
+        <v>0.7086445077017185</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7373950512110259</v>
+        <v>0.7361857500078836</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5028</v>
@@ -9184,19 +9184,19 @@
         <v>3887011</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3829425</v>
+        <v>3822697</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3948915</v>
+        <v>3948261</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.739426486984929</v>
+        <v>0.7394264869849291</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7284718939873422</v>
+        <v>0.7271920162235671</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7512024055050186</v>
+        <v>0.7510780707479841</v>
       </c>
     </row>
     <row r="30">
